--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Anxa1-Fpr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Anxa1-Fpr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.869595666666667</v>
+        <v>27.57445233333333</v>
       </c>
       <c r="H2">
-        <v>29.608787</v>
+        <v>82.72335699999999</v>
       </c>
       <c r="I2">
-        <v>0.01568105105651745</v>
+        <v>0.03336646884785083</v>
       </c>
       <c r="J2">
-        <v>0.01568105105651745</v>
+        <v>0.03336646884785083</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.6105403333333334</v>
+        <v>0.3499363333333333</v>
       </c>
       <c r="N2">
-        <v>1.831621</v>
+        <v>1.049809</v>
       </c>
       <c r="O2">
-        <v>0.01188380198875054</v>
+        <v>0.006307815829339535</v>
       </c>
       <c r="P2">
-        <v>0.01188380198875054</v>
+        <v>0.006307815829339534</v>
       </c>
       <c r="Q2">
-        <v>6.025786228191889</v>
+        <v>9.649302743201444</v>
       </c>
       <c r="R2">
-        <v>54.23207605372701</v>
+        <v>86.843724688813</v>
       </c>
       <c r="S2">
-        <v>0.0001863505057311408</v>
+        <v>0.000210469540367638</v>
       </c>
       <c r="T2">
-        <v>0.0001863505057311408</v>
+        <v>0.0002104695403676379</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.869595666666667</v>
+        <v>27.57445233333333</v>
       </c>
       <c r="H3">
-        <v>29.608787</v>
+        <v>82.72335699999999</v>
       </c>
       <c r="I3">
-        <v>0.01568105105651745</v>
+        <v>0.03336646884785083</v>
       </c>
       <c r="J3">
-        <v>0.01568105105651745</v>
+        <v>0.03336646884785083</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>3.187538</v>
       </c>
       <c r="O3">
-        <v>0.02068117281010531</v>
+        <v>0.01915243882746412</v>
       </c>
       <c r="P3">
-        <v>0.02068117281010532</v>
+        <v>0.01915243882746412</v>
       </c>
       <c r="Q3">
-        <v>10.48657041071178</v>
+        <v>29.29820488056288</v>
       </c>
       <c r="R3">
-        <v>94.37913369640602</v>
+        <v>263.683843925066</v>
       </c>
       <c r="S3">
-        <v>0.0003243025267439219</v>
+        <v>0.0006390492534969503</v>
       </c>
       <c r="T3">
-        <v>0.000324302526743922</v>
+        <v>0.0006390492534969503</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.869595666666667</v>
+        <v>27.57445233333333</v>
       </c>
       <c r="H4">
-        <v>29.608787</v>
+        <v>82.72335699999999</v>
       </c>
       <c r="I4">
-        <v>0.01568105105651745</v>
+        <v>0.03336646884785083</v>
       </c>
       <c r="J4">
-        <v>0.01568105105651745</v>
+        <v>0.03336646884785083</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>2.133338666666666</v>
+        <v>4.342990333333333</v>
       </c>
       <c r="N4">
-        <v>6.400016</v>
+        <v>13.028971</v>
       </c>
       <c r="O4">
-        <v>0.04152415967541061</v>
+        <v>0.07828504948405446</v>
       </c>
       <c r="P4">
-        <v>0.04152415967541061</v>
+        <v>0.07828504948405446</v>
       </c>
       <c r="Q4">
-        <v>21.05519006006578</v>
+        <v>119.7555799306274</v>
       </c>
       <c r="R4">
-        <v>189.496710540592</v>
+        <v>1077.800219375647</v>
       </c>
       <c r="S4">
-        <v>0.0006511424679490969</v>
+        <v>0.002612095664862164</v>
       </c>
       <c r="T4">
-        <v>0.0006511424679490969</v>
+        <v>0.002612095664862164</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.869595666666667</v>
+        <v>27.57445233333333</v>
       </c>
       <c r="H5">
-        <v>29.608787</v>
+        <v>82.72335699999999</v>
       </c>
       <c r="I5">
-        <v>0.01568105105651745</v>
+        <v>0.03336646884785083</v>
       </c>
       <c r="J5">
-        <v>0.01568105105651745</v>
+        <v>0.03336646884785083</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>46.29128866666667</v>
+        <v>0.04226866666666667</v>
       </c>
       <c r="N5">
-        <v>138.873866</v>
+        <v>0.126806</v>
       </c>
       <c r="O5">
-        <v>0.9010322140640862</v>
+        <v>0.0007619184957027697</v>
       </c>
       <c r="P5">
-        <v>0.9010322140640862</v>
+        <v>0.0007619184957027697</v>
       </c>
       <c r="Q5">
-        <v>456.8763020289491</v>
+        <v>1.165535334193555</v>
       </c>
       <c r="R5">
-        <v>4111.886718260542</v>
+        <v>10.489818007742</v>
       </c>
       <c r="S5">
-        <v>0.0141291321523059</v>
+        <v>2.542252975146784E-05</v>
       </c>
       <c r="T5">
-        <v>0.0141291321523059</v>
+        <v>2.542252975146784E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,51 +791,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.869595666666667</v>
+        <v>27.57445233333333</v>
       </c>
       <c r="H6">
-        <v>29.608787</v>
+        <v>82.72335699999999</v>
       </c>
       <c r="I6">
-        <v>0.01568105105651745</v>
+        <v>0.03336646884785083</v>
       </c>
       <c r="J6">
-        <v>0.01568105105651745</v>
+        <v>0.03336646884785083</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1.278161666666667</v>
+        <v>48.08749033333334</v>
       </c>
       <c r="N6">
-        <v>3.834485</v>
+        <v>144.262471</v>
       </c>
       <c r="O6">
-        <v>0.02487865146164742</v>
+        <v>0.8668063411091308</v>
       </c>
       <c r="P6">
-        <v>0.02487865146164742</v>
+        <v>0.8668063411091308</v>
       </c>
       <c r="Q6">
-        <v>12.61493884663278</v>
+        <v>1325.986210026127</v>
       </c>
       <c r="R6">
-        <v>113.534449619695</v>
+        <v>11933.87589023515</v>
       </c>
       <c r="S6">
-        <v>0.0003901234037873956</v>
+        <v>0.02892226677773738</v>
       </c>
       <c r="T6">
-        <v>0.0003901234037873956</v>
+        <v>0.02892226677773738</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>244.4161783333333</v>
+        <v>27.57445233333333</v>
       </c>
       <c r="H7">
-        <v>733.2485349999999</v>
+        <v>82.72335699999999</v>
       </c>
       <c r="I7">
-        <v>0.3883343047606652</v>
+        <v>0.03336646884785083</v>
       </c>
       <c r="J7">
-        <v>0.3883343047606652</v>
+        <v>0.03336646884785083</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.6105403333333334</v>
+        <v>1.591426666666667</v>
       </c>
       <c r="N7">
-        <v>1.831621</v>
+        <v>4.77428</v>
       </c>
       <c r="O7">
-        <v>0.01188380198875054</v>
+        <v>0.02868643625430831</v>
       </c>
       <c r="P7">
-        <v>0.01188380198875054</v>
+        <v>0.02868643625430831</v>
       </c>
       <c r="Q7">
-        <v>149.2259349916928</v>
+        <v>43.88271876199556</v>
       </c>
       <c r="R7">
-        <v>1343.033414925235</v>
+        <v>394.94446885796</v>
       </c>
       <c r="S7">
-        <v>0.00461488798321485</v>
+        <v>0.000957165081635237</v>
       </c>
       <c r="T7">
-        <v>0.00461488798321485</v>
+        <v>0.0009571650816352369</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>244.4161783333333</v>
+        <v>244.4161783333334</v>
       </c>
       <c r="H8">
-        <v>733.2485349999999</v>
+        <v>733.2485350000001</v>
       </c>
       <c r="I8">
-        <v>0.3883343047606652</v>
+        <v>0.2957558214279163</v>
       </c>
       <c r="J8">
-        <v>0.3883343047606652</v>
+        <v>0.2957558214279163</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>1.062512666666667</v>
+        <v>0.3499363333333333</v>
       </c>
       <c r="N8">
-        <v>3.187538</v>
+        <v>1.049809</v>
       </c>
       <c r="O8">
-        <v>0.02068117281010531</v>
+        <v>0.006307815829339535</v>
       </c>
       <c r="P8">
-        <v>0.02068117281010532</v>
+        <v>0.006307815829339534</v>
       </c>
       <c r="Q8">
-        <v>259.6952854174255</v>
+        <v>85.53010125331279</v>
       </c>
       <c r="R8">
-        <v>2337.25756875683</v>
+        <v>769.7709112798151</v>
       </c>
       <c r="S8">
-        <v>0.008031208864847419</v>
+        <v>0.001865573252022327</v>
       </c>
       <c r="T8">
-        <v>0.008031208864847421</v>
+        <v>0.001865573252022327</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>244.4161783333333</v>
+        <v>244.4161783333334</v>
       </c>
       <c r="H9">
-        <v>733.2485349999999</v>
+        <v>733.2485350000001</v>
       </c>
       <c r="I9">
-        <v>0.3883343047606652</v>
+        <v>0.2957558214279163</v>
       </c>
       <c r="J9">
-        <v>0.3883343047606652</v>
+        <v>0.2957558214279163</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,28 +995,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>2.133338666666666</v>
+        <v>1.062512666666667</v>
       </c>
       <c r="N9">
-        <v>6.400016</v>
+        <v>3.187538</v>
       </c>
       <c r="O9">
-        <v>0.04152415967541061</v>
+        <v>0.01915243882746412</v>
       </c>
       <c r="P9">
-        <v>0.04152415967541061</v>
+        <v>0.01915243882746412</v>
       </c>
       <c r="Q9">
-        <v>521.4224839973955</v>
+        <v>259.6952854174256</v>
       </c>
       <c r="R9">
-        <v>4692.80235597656</v>
+        <v>2337.25756875683</v>
       </c>
       <c r="S9">
-        <v>0.01612525567832142</v>
+        <v>0.005664445277764568</v>
       </c>
       <c r="T9">
-        <v>0.01612525567832142</v>
+        <v>0.005664445277764568</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>244.4161783333333</v>
+        <v>244.4161783333334</v>
       </c>
       <c r="H10">
-        <v>733.2485349999999</v>
+        <v>733.2485350000001</v>
       </c>
       <c r="I10">
-        <v>0.3883343047606652</v>
+        <v>0.2957558214279163</v>
       </c>
       <c r="J10">
-        <v>0.3883343047606652</v>
+        <v>0.2957558214279163</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>46.29128866666667</v>
+        <v>4.342990333333333</v>
       </c>
       <c r="N10">
-        <v>138.873866</v>
+        <v>13.028971</v>
       </c>
       <c r="O10">
-        <v>0.9010322140640862</v>
+        <v>0.07828504948405446</v>
       </c>
       <c r="P10">
-        <v>0.9010322140640862</v>
+        <v>0.07828504948405446</v>
       </c>
       <c r="Q10">
-        <v>11314.33986603181</v>
+        <v>1061.497099811943</v>
       </c>
       <c r="R10">
-        <v>101829.0587942863</v>
+        <v>9553.473898307484</v>
       </c>
       <c r="S10">
-        <v>0.3499017184155397</v>
+        <v>0.0231532591156816</v>
       </c>
       <c r="T10">
-        <v>0.3499017184155397</v>
+        <v>0.0231532591156816</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,51 +1101,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>244.4161783333333</v>
+        <v>244.4161783333334</v>
       </c>
       <c r="H11">
-        <v>733.2485349999999</v>
+        <v>733.2485350000001</v>
       </c>
       <c r="I11">
-        <v>0.3883343047606652</v>
+        <v>0.2957558214279163</v>
       </c>
       <c r="J11">
-        <v>0.3883343047606652</v>
+        <v>0.2957558214279163</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>1.278161666666667</v>
+        <v>0.04226866666666667</v>
       </c>
       <c r="N11">
-        <v>3.834485</v>
+        <v>0.126806</v>
       </c>
       <c r="O11">
-        <v>0.02487865146164742</v>
+        <v>0.0007619184957027697</v>
       </c>
       <c r="P11">
-        <v>0.02487865146164742</v>
+        <v>0.0007619184957027697</v>
       </c>
       <c r="Q11">
-        <v>312.4033898588305</v>
+        <v>10.33114596991222</v>
       </c>
       <c r="R11">
-        <v>2811.630508729475</v>
+        <v>92.98031372921001</v>
       </c>
       <c r="S11">
-        <v>0.009661233818741755</v>
+        <v>0.000225341830557695</v>
       </c>
       <c r="T11">
-        <v>0.009661233818741755</v>
+        <v>0.000225341830557695</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,51 +1163,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>91.68861033333333</v>
+        <v>244.4161783333334</v>
       </c>
       <c r="H12">
-        <v>275.065831</v>
+        <v>733.2485350000001</v>
       </c>
       <c r="I12">
-        <v>0.1456770701148412</v>
+        <v>0.2957558214279163</v>
       </c>
       <c r="J12">
-        <v>0.1456770701148413</v>
+        <v>0.2957558214279163</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6105403333333334</v>
+        <v>48.08749033333334</v>
       </c>
       <c r="N12">
-        <v>1.831621</v>
+        <v>144.262471</v>
       </c>
       <c r="O12">
-        <v>0.01188380198875054</v>
+        <v>0.8668063411091308</v>
       </c>
       <c r="P12">
-        <v>0.01188380198875054</v>
+        <v>0.8668063411091308</v>
       </c>
       <c r="Q12">
-        <v>55.97959471578344</v>
+        <v>11753.36061291444</v>
       </c>
       <c r="R12">
-        <v>503.816352442051</v>
+        <v>105780.24551623</v>
       </c>
       <c r="S12">
-        <v>0.001731197455546102</v>
+        <v>0.2563630214336576</v>
       </c>
       <c r="T12">
-        <v>0.001731197455546102</v>
+        <v>0.2563630214336576</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>91.68861033333333</v>
+        <v>244.4161783333334</v>
       </c>
       <c r="H13">
-        <v>275.065831</v>
+        <v>733.2485350000001</v>
       </c>
       <c r="I13">
-        <v>0.1456770701148412</v>
+        <v>0.2957558214279163</v>
       </c>
       <c r="J13">
-        <v>0.1456770701148413</v>
+        <v>0.2957558214279163</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1243,28 +1243,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>1.062512666666667</v>
+        <v>1.591426666666667</v>
       </c>
       <c r="N13">
-        <v>3.187538</v>
+        <v>4.77428</v>
       </c>
       <c r="O13">
-        <v>0.02068117281010531</v>
+        <v>0.02868643625430831</v>
       </c>
       <c r="P13">
-        <v>0.02068117281010532</v>
+        <v>0.02868643625430831</v>
       </c>
       <c r="Q13">
-        <v>97.42030986823089</v>
+        <v>388.9704239644223</v>
       </c>
       <c r="R13">
-        <v>876.782788814078</v>
+        <v>3500.733815679801</v>
       </c>
       <c r="S13">
-        <v>0.00301277266151486</v>
+        <v>0.008484180518232512</v>
       </c>
       <c r="T13">
-        <v>0.003012772661514861</v>
+        <v>0.008484180518232512</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>91.68861033333333</v>
+        <v>145.2603533333333</v>
       </c>
       <c r="H14">
-        <v>275.065831</v>
+        <v>435.78106</v>
       </c>
       <c r="I14">
-        <v>0.1456770701148412</v>
+        <v>0.1757723053112245</v>
       </c>
       <c r="J14">
-        <v>0.1456770701148413</v>
+        <v>0.1757723053112245</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>2.133338666666666</v>
+        <v>0.3499363333333333</v>
       </c>
       <c r="N14">
-        <v>6.400016</v>
+        <v>1.049809</v>
       </c>
       <c r="O14">
-        <v>0.04152415967541061</v>
+        <v>0.006307815829339535</v>
       </c>
       <c r="P14">
-        <v>0.04152415967541061</v>
+        <v>0.006307815829339534</v>
       </c>
       <c r="Q14">
-        <v>195.6028577170329</v>
+        <v>50.83187542417112</v>
       </c>
       <c r="R14">
-        <v>1760.425719453296</v>
+        <v>457.48687881754</v>
       </c>
       <c r="S14">
-        <v>0.006049117920494654</v>
+        <v>0.001108739329801643</v>
       </c>
       <c r="T14">
-        <v>0.006049117920494655</v>
+        <v>0.001108739329801643</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>91.68861033333333</v>
+        <v>145.2603533333333</v>
       </c>
       <c r="H15">
-        <v>275.065831</v>
+        <v>435.78106</v>
       </c>
       <c r="I15">
-        <v>0.1456770701148412</v>
+        <v>0.1757723053112245</v>
       </c>
       <c r="J15">
-        <v>0.1456770701148413</v>
+        <v>0.1757723053112245</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>46.29128866666667</v>
+        <v>1.062512666666667</v>
       </c>
       <c r="N15">
-        <v>138.873866</v>
+        <v>3.187538</v>
       </c>
       <c r="O15">
-        <v>0.9010322140640862</v>
+        <v>0.01915243882746412</v>
       </c>
       <c r="P15">
-        <v>0.9010322140640862</v>
+        <v>0.01915243882746412</v>
       </c>
       <c r="Q15">
-        <v>4244.38392838585</v>
+        <v>154.3409653811422</v>
       </c>
       <c r="R15">
-        <v>38199.45535547264</v>
+        <v>1389.06868843028</v>
       </c>
       <c r="S15">
-        <v>0.1312597330239445</v>
+        <v>0.003366468325035573</v>
       </c>
       <c r="T15">
-        <v>0.1312597330239446</v>
+        <v>0.003366468325035573</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,61 +1411,61 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>91.68861033333333</v>
+        <v>145.2603533333333</v>
       </c>
       <c r="H16">
-        <v>275.065831</v>
+        <v>435.78106</v>
       </c>
       <c r="I16">
-        <v>0.1456770701148412</v>
+        <v>0.1757723053112245</v>
       </c>
       <c r="J16">
-        <v>0.1456770701148413</v>
+        <v>0.1757723053112245</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>1.278161666666667</v>
+        <v>4.342990333333333</v>
       </c>
       <c r="N16">
-        <v>3.834485</v>
+        <v>13.028971</v>
       </c>
       <c r="O16">
-        <v>0.02487865146164742</v>
+        <v>0.07828504948405446</v>
       </c>
       <c r="P16">
-        <v>0.02487865146164742</v>
+        <v>0.07828504948405446</v>
       </c>
       <c r="Q16">
-        <v>117.1928669980039</v>
+        <v>630.8643103432511</v>
       </c>
       <c r="R16">
-        <v>1054.735802982035</v>
+        <v>5677.77879308926</v>
       </c>
       <c r="S16">
-        <v>0.003624249053341108</v>
+        <v>0.01376034361921554</v>
       </c>
       <c r="T16">
-        <v>0.003624249053341109</v>
+        <v>0.01376034361921554</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
         <v>3</v>
       </c>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>73.35356366666666</v>
+        <v>145.2603533333333</v>
       </c>
       <c r="H17">
-        <v>220.060691</v>
+        <v>435.78106</v>
       </c>
       <c r="I17">
-        <v>0.1165459068317628</v>
+        <v>0.1757723053112245</v>
       </c>
       <c r="J17">
-        <v>0.1165459068317628</v>
+        <v>0.1757723053112245</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1491,33 +1491,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.6105403333333334</v>
+        <v>0.04226866666666667</v>
       </c>
       <c r="N17">
-        <v>1.831621</v>
+        <v>0.126806</v>
       </c>
       <c r="O17">
-        <v>0.01188380198875054</v>
+        <v>0.0007619184957027697</v>
       </c>
       <c r="P17">
-        <v>0.01188380198875054</v>
+        <v>0.0007619184957027697</v>
       </c>
       <c r="Q17">
-        <v>44.78530921223455</v>
+        <v>6.13996145492889</v>
       </c>
       <c r="R17">
-        <v>403.067782910111</v>
+        <v>55.25965309436</v>
       </c>
       <c r="S17">
-        <v>0.001385008479388038</v>
+        <v>0.0001339241704489361</v>
       </c>
       <c r="T17">
-        <v>0.001385008479388038</v>
+        <v>0.0001339241704489361</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,51 +1535,51 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>73.35356366666666</v>
+        <v>145.2603533333333</v>
       </c>
       <c r="H18">
-        <v>220.060691</v>
+        <v>435.78106</v>
       </c>
       <c r="I18">
-        <v>0.1165459068317628</v>
+        <v>0.1757723053112245</v>
       </c>
       <c r="J18">
-        <v>0.1165459068317628</v>
+        <v>0.1757723053112245</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>1.062512666666667</v>
+        <v>48.08749033333334</v>
       </c>
       <c r="N18">
-        <v>3.187538</v>
+        <v>144.262471</v>
       </c>
       <c r="O18">
-        <v>0.02068117281010531</v>
+        <v>0.8668063411091308</v>
       </c>
       <c r="P18">
-        <v>0.02068117281010532</v>
+        <v>0.8668063411091308</v>
       </c>
       <c r="Q18">
-        <v>77.9390905409731</v>
+        <v>6985.205836733252</v>
       </c>
       <c r="R18">
-        <v>701.451814868758</v>
+        <v>62866.85253059927</v>
       </c>
       <c r="S18">
-        <v>0.00241030603949812</v>
+        <v>0.1523605488351395</v>
       </c>
       <c r="T18">
-        <v>0.002410306039498121</v>
+        <v>0.1523605488351395</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>73.35356366666666</v>
+        <v>145.2603533333333</v>
       </c>
       <c r="H19">
-        <v>220.060691</v>
+        <v>435.78106</v>
       </c>
       <c r="I19">
-        <v>0.1165459068317628</v>
+        <v>0.1757723053112245</v>
       </c>
       <c r="J19">
-        <v>0.1165459068317628</v>
+        <v>0.1757723053112245</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1615,28 +1615,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>2.133338666666666</v>
+        <v>1.591426666666667</v>
       </c>
       <c r="N19">
-        <v>6.400016</v>
+        <v>4.77428</v>
       </c>
       <c r="O19">
-        <v>0.04152415967541061</v>
+        <v>0.02868643625430831</v>
       </c>
       <c r="P19">
-        <v>0.04152415967541061</v>
+        <v>0.02868643625430831</v>
       </c>
       <c r="Q19">
-        <v>156.4879937078951</v>
+        <v>231.1711999040889</v>
       </c>
       <c r="R19">
-        <v>1408.391943371056</v>
+        <v>2080.5407991368</v>
       </c>
       <c r="S19">
-        <v>0.004839470844797647</v>
+        <v>0.005042281031583259</v>
       </c>
       <c r="T19">
-        <v>0.004839470844797647</v>
+        <v>0.005042281031583259</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>73.35356366666666</v>
+        <v>62.503002</v>
       </c>
       <c r="H20">
-        <v>220.060691</v>
+        <v>187.509006</v>
       </c>
       <c r="I20">
-        <v>0.1165459068317628</v>
+        <v>0.07563176392116772</v>
       </c>
       <c r="J20">
-        <v>0.1165459068317628</v>
+        <v>0.07563176392116772</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>46.29128866666667</v>
+        <v>0.3499363333333333</v>
       </c>
       <c r="N20">
-        <v>138.873866</v>
+        <v>1.049809</v>
       </c>
       <c r="O20">
-        <v>0.9010322140640862</v>
+        <v>0.006307815829339535</v>
       </c>
       <c r="P20">
-        <v>0.9010322140640862</v>
+        <v>0.006307815829339534</v>
       </c>
       <c r="Q20">
-        <v>3395.630990422378</v>
+        <v>21.872071342206</v>
       </c>
       <c r="R20">
-        <v>30560.6789138014</v>
+        <v>196.848642079854</v>
       </c>
       <c r="S20">
-        <v>0.1050116164727299</v>
+        <v>0.0004770712376628125</v>
       </c>
       <c r="T20">
-        <v>0.1050116164727299</v>
+        <v>0.0004770712376628124</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>73.35356366666666</v>
+        <v>62.503002</v>
       </c>
       <c r="H21">
-        <v>220.060691</v>
+        <v>187.509006</v>
       </c>
       <c r="I21">
-        <v>0.1165459068317628</v>
+        <v>0.07563176392116772</v>
       </c>
       <c r="J21">
-        <v>0.1165459068317628</v>
+        <v>0.07563176392116772</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1739,33 +1739,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>1.278161666666667</v>
+        <v>1.062512666666667</v>
       </c>
       <c r="N21">
-        <v>3.834485</v>
+        <v>3.187538</v>
       </c>
       <c r="O21">
-        <v>0.02487865146164742</v>
+        <v>0.01915243882746412</v>
       </c>
       <c r="P21">
-        <v>0.02487865146164742</v>
+        <v>0.01915243882746412</v>
       </c>
       <c r="Q21">
-        <v>93.7577131921261</v>
+        <v>66.410231329692</v>
       </c>
       <c r="R21">
-        <v>843.8194187291349</v>
+        <v>597.692081967228</v>
       </c>
       <c r="S21">
-        <v>0.002899504995349059</v>
+        <v>0.001448532731913373</v>
       </c>
       <c r="T21">
-        <v>0.002899504995349059</v>
+        <v>0.001448532731913373</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,51 +1783,51 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>129.147616</v>
+        <v>62.503002</v>
       </c>
       <c r="H22">
-        <v>387.442848</v>
+        <v>187.509006</v>
       </c>
       <c r="I22">
-        <v>0.2051928395773366</v>
+        <v>0.07563176392116772</v>
       </c>
       <c r="J22">
-        <v>0.2051928395773366</v>
+        <v>0.07563176392116772</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.6105403333333334</v>
+        <v>4.342990333333333</v>
       </c>
       <c r="N22">
-        <v>1.831621</v>
+        <v>13.028971</v>
       </c>
       <c r="O22">
-        <v>0.01188380198875054</v>
+        <v>0.07828504948405446</v>
       </c>
       <c r="P22">
-        <v>0.01188380198875054</v>
+        <v>0.07828504948405446</v>
       </c>
       <c r="Q22">
-        <v>78.84982852184534</v>
+        <v>271.449933490314</v>
       </c>
       <c r="R22">
-        <v>709.648456696608</v>
+        <v>2443.049401412826</v>
       </c>
       <c r="S22">
-        <v>0.002438471075046523</v>
+        <v>0.005920836381134939</v>
       </c>
       <c r="T22">
-        <v>0.002438471075046523</v>
+        <v>0.005920836381134939</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,61 +1845,61 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>129.147616</v>
+        <v>62.503002</v>
       </c>
       <c r="H23">
-        <v>387.442848</v>
+        <v>187.509006</v>
       </c>
       <c r="I23">
-        <v>0.2051928395773366</v>
+        <v>0.07563176392116772</v>
       </c>
       <c r="J23">
-        <v>0.2051928395773366</v>
+        <v>0.07563176392116772</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L23">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M23">
-        <v>1.062512666666667</v>
+        <v>0.04226866666666667</v>
       </c>
       <c r="N23">
-        <v>3.187538</v>
+        <v>0.126806</v>
       </c>
       <c r="O23">
-        <v>0.02068117281010531</v>
+        <v>0.0007619184957027697</v>
       </c>
       <c r="P23">
-        <v>0.02068117281010532</v>
+        <v>0.0007619184957027697</v>
       </c>
       <c r="Q23">
-        <v>137.2209778698027</v>
+        <v>2.641918557204</v>
       </c>
       <c r="R23">
-        <v>1234.988800828224</v>
+        <v>23.777267014836</v>
       </c>
       <c r="S23">
-        <v>0.004243628574695115</v>
+        <v>5.762523979416312E-05</v>
       </c>
       <c r="T23">
-        <v>0.004243628574695116</v>
+        <v>5.762523979416312E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
         <v>3</v>
       </c>
@@ -1907,51 +1907,51 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>129.147616</v>
+        <v>62.503002</v>
       </c>
       <c r="H24">
-        <v>387.442848</v>
+        <v>187.509006</v>
       </c>
       <c r="I24">
-        <v>0.2051928395773366</v>
+        <v>0.07563176392116772</v>
       </c>
       <c r="J24">
-        <v>0.2051928395773366</v>
+        <v>0.07563176392116772</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>2.133338666666666</v>
+        <v>48.08749033333334</v>
       </c>
       <c r="N24">
-        <v>6.400016</v>
+        <v>144.262471</v>
       </c>
       <c r="O24">
-        <v>0.04152415967541061</v>
+        <v>0.8668063411091308</v>
       </c>
       <c r="P24">
-        <v>0.04152415967541061</v>
+        <v>0.8668063411091308</v>
       </c>
       <c r="Q24">
-        <v>275.5156029206186</v>
+        <v>3005.612504479314</v>
       </c>
       <c r="R24">
-        <v>2479.640426285568</v>
+        <v>27050.51254031383</v>
       </c>
       <c r="S24">
-        <v>0.008520460234860239</v>
+        <v>0.06555809255613695</v>
       </c>
       <c r="T24">
-        <v>0.008520460234860239</v>
+        <v>0.06555809255613695</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>129.147616</v>
+        <v>62.503002</v>
       </c>
       <c r="H25">
-        <v>387.442848</v>
+        <v>187.509006</v>
       </c>
       <c r="I25">
-        <v>0.2051928395773366</v>
+        <v>0.07563176392116772</v>
       </c>
       <c r="J25">
-        <v>0.2051928395773366</v>
+        <v>0.07563176392116772</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>46.29128866666667</v>
+        <v>1.591426666666667</v>
       </c>
       <c r="N25">
-        <v>138.873866</v>
+        <v>4.77428</v>
       </c>
       <c r="O25">
-        <v>0.9010322140640862</v>
+        <v>0.02868643625430831</v>
       </c>
       <c r="P25">
-        <v>0.9010322140640862</v>
+        <v>0.02868643625430831</v>
       </c>
       <c r="Q25">
-        <v>5978.409572867818</v>
+        <v>99.46894412952001</v>
       </c>
       <c r="R25">
-        <v>53805.68615581037</v>
+        <v>895.2204971656801</v>
       </c>
       <c r="S25">
-        <v>0.1848853585544644</v>
+        <v>0.002169605774525473</v>
       </c>
       <c r="T25">
-        <v>0.1848853585544644</v>
+        <v>0.002169605774525473</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,51 +2031,51 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>129.147616</v>
+        <v>143.4576163333333</v>
       </c>
       <c r="H26">
-        <v>387.442848</v>
+        <v>430.372849</v>
       </c>
       <c r="I26">
-        <v>0.2051928395773366</v>
+        <v>0.1735909032211944</v>
       </c>
       <c r="J26">
-        <v>0.2051928395773366</v>
+        <v>0.1735909032211944</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>1.278161666666667</v>
+        <v>0.3499363333333333</v>
       </c>
       <c r="N26">
-        <v>3.834485</v>
+        <v>1.049809</v>
       </c>
       <c r="O26">
-        <v>0.02487865146164742</v>
+        <v>0.006307815829339535</v>
       </c>
       <c r="P26">
-        <v>0.02487865146164742</v>
+        <v>0.006307815829339534</v>
       </c>
       <c r="Q26">
-        <v>165.0715321125867</v>
+        <v>50.20103224842678</v>
       </c>
       <c r="R26">
-        <v>1485.64378901328</v>
+        <v>451.809290235841</v>
       </c>
       <c r="S26">
-        <v>0.005104921138270289</v>
+        <v>0.001094979447167997</v>
       </c>
       <c r="T26">
-        <v>0.005104921138270289</v>
+        <v>0.001094979447167997</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,51 +2093,51 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>80.92074566666666</v>
+        <v>143.4576163333333</v>
       </c>
       <c r="H27">
-        <v>242.762237</v>
+        <v>430.372849</v>
       </c>
       <c r="I27">
-        <v>0.1285688276588767</v>
+        <v>0.1735909032211944</v>
       </c>
       <c r="J27">
-        <v>0.1285688276588767</v>
+        <v>0.1735909032211944</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L27">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M27">
-        <v>0.6105403333333334</v>
+        <v>1.062512666666667</v>
       </c>
       <c r="N27">
-        <v>1.831621</v>
+        <v>3.187538</v>
       </c>
       <c r="O27">
-        <v>0.01188380198875054</v>
+        <v>0.01915243882746412</v>
       </c>
       <c r="P27">
-        <v>0.01188380198875054</v>
+        <v>0.01915243882746412</v>
       </c>
       <c r="Q27">
-        <v>49.40537903290856</v>
+        <v>152.4255344839736</v>
       </c>
       <c r="R27">
-        <v>444.648411296177</v>
+        <v>1371.829810355762</v>
       </c>
       <c r="S27">
-        <v>0.001527886489823884</v>
+        <v>0.003324689154948169</v>
       </c>
       <c r="T27">
-        <v>0.001527886489823884</v>
+        <v>0.003324689154948169</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,51 +2155,51 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>80.92074566666666</v>
+        <v>143.4576163333333</v>
       </c>
       <c r="H28">
-        <v>242.762237</v>
+        <v>430.372849</v>
       </c>
       <c r="I28">
-        <v>0.1285688276588767</v>
+        <v>0.1735909032211944</v>
       </c>
       <c r="J28">
-        <v>0.1285688276588767</v>
+        <v>0.1735909032211944</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>1.062512666666667</v>
+        <v>4.342990333333333</v>
       </c>
       <c r="N28">
-        <v>3.187538</v>
+        <v>13.028971</v>
       </c>
       <c r="O28">
-        <v>0.02068117281010531</v>
+        <v>0.07828504948405446</v>
       </c>
       <c r="P28">
-        <v>0.02068117281010532</v>
+        <v>0.07828504948405446</v>
       </c>
       <c r="Q28">
-        <v>85.9793172669451</v>
+        <v>623.0350409787087</v>
       </c>
       <c r="R28">
-        <v>773.8138554025059</v>
+        <v>5607.315368808378</v>
       </c>
       <c r="S28">
-        <v>0.002658954142805877</v>
+        <v>0.01358957244865291</v>
       </c>
       <c r="T28">
-        <v>0.002658954142805877</v>
+        <v>0.01358957244865291</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,51 +2217,51 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>80.92074566666666</v>
+        <v>143.4576163333333</v>
       </c>
       <c r="H29">
-        <v>242.762237</v>
+        <v>430.372849</v>
       </c>
       <c r="I29">
-        <v>0.1285688276588767</v>
+        <v>0.1735909032211944</v>
       </c>
       <c r="J29">
-        <v>0.1285688276588767</v>
+        <v>0.1735909032211944</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M29">
-        <v>2.133338666666666</v>
+        <v>0.04226866666666667</v>
       </c>
       <c r="N29">
-        <v>6.400016</v>
+        <v>0.126806</v>
       </c>
       <c r="O29">
-        <v>0.04152415967541061</v>
+        <v>0.0007619184957027697</v>
       </c>
       <c r="P29">
-        <v>0.04152415967541061</v>
+        <v>0.0007619184957027697</v>
       </c>
       <c r="Q29">
-        <v>172.6313556661991</v>
+        <v>6.063762165588223</v>
       </c>
       <c r="R29">
-        <v>1553.682200995792</v>
+        <v>54.573859490294</v>
       </c>
       <c r="S29">
-        <v>0.005338712528987544</v>
+        <v>0.0001322621198499775</v>
       </c>
       <c r="T29">
-        <v>0.005338712528987544</v>
+        <v>0.0001322621198499775</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>80.92074566666666</v>
+        <v>143.4576163333333</v>
       </c>
       <c r="H30">
-        <v>242.762237</v>
+        <v>430.372849</v>
       </c>
       <c r="I30">
-        <v>0.1285688276588767</v>
+        <v>0.1735909032211944</v>
       </c>
       <c r="J30">
-        <v>0.1285688276588767</v>
+        <v>0.1735909032211944</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,33 +2297,33 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>46.29128866666667</v>
+        <v>48.08749033333334</v>
       </c>
       <c r="N30">
-        <v>138.873866</v>
+        <v>144.262471</v>
       </c>
       <c r="O30">
-        <v>0.9010322140640862</v>
+        <v>0.8668063411091308</v>
       </c>
       <c r="P30">
-        <v>0.9010322140640862</v>
+        <v>0.8668063411091308</v>
       </c>
       <c r="Q30">
-        <v>3745.925596777582</v>
+        <v>6898.516738672209</v>
       </c>
       <c r="R30">
-        <v>33713.33037099824</v>
+        <v>62086.65064804988</v>
       </c>
       <c r="S30">
-        <v>0.1158446554451016</v>
+        <v>0.1504696956709927</v>
       </c>
       <c r="T30">
-        <v>0.1158446554451016</v>
+        <v>0.1504696956709927</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>80.92074566666666</v>
+        <v>143.4576163333333</v>
       </c>
       <c r="H31">
-        <v>242.762237</v>
+        <v>430.372849</v>
       </c>
       <c r="I31">
-        <v>0.1285688276588767</v>
+        <v>0.1735909032211944</v>
       </c>
       <c r="J31">
-        <v>0.1285688276588767</v>
+        <v>0.1735909032211944</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -2359,28 +2359,400 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>1.278161666666667</v>
+        <v>1.591426666666667</v>
       </c>
       <c r="N31">
-        <v>3.834485</v>
+        <v>4.77428</v>
       </c>
       <c r="O31">
-        <v>0.02487865146164742</v>
+        <v>0.02868643625430831</v>
       </c>
       <c r="P31">
-        <v>0.02487865146164742</v>
+        <v>0.02868643625430831</v>
       </c>
       <c r="Q31">
-        <v>103.4297951492161</v>
+        <v>228.3022761693022</v>
       </c>
       <c r="R31">
-        <v>930.8681563429449</v>
+        <v>2054.72048552372</v>
       </c>
       <c r="S31">
-        <v>0.003198619052157808</v>
+        <v>0.004979704379582596</v>
       </c>
       <c r="T31">
-        <v>0.003198619052157808</v>
+        <v>0.004979704379582595</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>203.20046</v>
+      </c>
+      <c r="H32">
+        <v>609.6013799999999</v>
+      </c>
+      <c r="I32">
+        <v>0.2458827372706463</v>
+      </c>
+      <c r="J32">
+        <v>0.2458827372706463</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M32">
+        <v>0.3499363333333333</v>
+      </c>
+      <c r="N32">
+        <v>1.049809</v>
+      </c>
+      <c r="O32">
+        <v>0.006307815829339535</v>
+      </c>
+      <c r="P32">
+        <v>0.006307815829339534</v>
+      </c>
+      <c r="Q32">
+        <v>71.10722390404666</v>
+      </c>
+      <c r="R32">
+        <v>639.96501513642</v>
+      </c>
+      <c r="S32">
+        <v>0.001550983022317117</v>
+      </c>
+      <c r="T32">
+        <v>0.001550983022317117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>203.20046</v>
+      </c>
+      <c r="H33">
+        <v>609.6013799999999</v>
+      </c>
+      <c r="I33">
+        <v>0.2458827372706463</v>
+      </c>
+      <c r="J33">
+        <v>0.2458827372706463</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M33">
+        <v>1.062512666666667</v>
+      </c>
+      <c r="N33">
+        <v>3.187538</v>
+      </c>
+      <c r="O33">
+        <v>0.01915243882746412</v>
+      </c>
+      <c r="P33">
+        <v>0.01915243882746412</v>
+      </c>
+      <c r="Q33">
+        <v>215.9030626224933</v>
+      </c>
+      <c r="R33">
+        <v>1943.12756360244</v>
+      </c>
+      <c r="S33">
+        <v>0.004709254084305486</v>
+      </c>
+      <c r="T33">
+        <v>0.004709254084305485</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>203.20046</v>
+      </c>
+      <c r="H34">
+        <v>609.6013799999999</v>
+      </c>
+      <c r="I34">
+        <v>0.2458827372706463</v>
+      </c>
+      <c r="J34">
+        <v>0.2458827372706463</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>4.342990333333333</v>
+      </c>
+      <c r="N34">
+        <v>13.028971</v>
+      </c>
+      <c r="O34">
+        <v>0.07828504948405446</v>
+      </c>
+      <c r="P34">
+        <v>0.07828504948405446</v>
+      </c>
+      <c r="Q34">
+        <v>882.4976335088866</v>
+      </c>
+      <c r="R34">
+        <v>7942.478701579978</v>
+      </c>
+      <c r="S34">
+        <v>0.01924894225450731</v>
+      </c>
+      <c r="T34">
+        <v>0.01924894225450731</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>203.20046</v>
+      </c>
+      <c r="H35">
+        <v>609.6013799999999</v>
+      </c>
+      <c r="I35">
+        <v>0.2458827372706463</v>
+      </c>
+      <c r="J35">
+        <v>0.2458827372706463</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M35">
+        <v>0.04226866666666667</v>
+      </c>
+      <c r="N35">
+        <v>0.126806</v>
+      </c>
+      <c r="O35">
+        <v>0.0007619184957027697</v>
+      </c>
+      <c r="P35">
+        <v>0.0007619184957027697</v>
+      </c>
+      <c r="Q35">
+        <v>8.589012510253333</v>
+      </c>
+      <c r="R35">
+        <v>77.30111259227999</v>
+      </c>
+      <c r="S35">
+        <v>0.0001873426053005302</v>
+      </c>
+      <c r="T35">
+        <v>0.0001873426053005302</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>203.20046</v>
+      </c>
+      <c r="H36">
+        <v>609.6013799999999</v>
+      </c>
+      <c r="I36">
+        <v>0.2458827372706463</v>
+      </c>
+      <c r="J36">
+        <v>0.2458827372706463</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>48.08749033333334</v>
+      </c>
+      <c r="N36">
+        <v>144.262471</v>
+      </c>
+      <c r="O36">
+        <v>0.8668063411091308</v>
+      </c>
+      <c r="P36">
+        <v>0.8668063411091308</v>
+      </c>
+      <c r="Q36">
+        <v>9771.400155978887</v>
+      </c>
+      <c r="R36">
+        <v>87942.60140380998</v>
+      </c>
+      <c r="S36">
+        <v>0.2131327158354666</v>
+      </c>
+      <c r="T36">
+        <v>0.2131327158354666</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>203.20046</v>
+      </c>
+      <c r="H37">
+        <v>609.6013799999999</v>
+      </c>
+      <c r="I37">
+        <v>0.2458827372706463</v>
+      </c>
+      <c r="J37">
+        <v>0.2458827372706463</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M37">
+        <v>1.591426666666667</v>
+      </c>
+      <c r="N37">
+        <v>4.77428</v>
+      </c>
+      <c r="O37">
+        <v>0.02868643625430831</v>
+      </c>
+      <c r="P37">
+        <v>0.02868643625430831</v>
+      </c>
+      <c r="Q37">
+        <v>323.3786307229333</v>
+      </c>
+      <c r="R37">
+        <v>2910.4076765064</v>
+      </c>
+      <c r="S37">
+        <v>0.007053499468749234</v>
+      </c>
+      <c r="T37">
+        <v>0.007053499468749233</v>
       </c>
     </row>
   </sheetData>
